--- a/resources/practice.xlsx
+++ b/resources/practice.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\semantic-decision\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\OneDrive\Desktop\CNC\Paradigmas\Python\motor-semantic-decision\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AEA300-C6C8-4D5E-976F-DD17F40FA563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C45815A-DA6A-42A8-9E18-622B2C129F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EFFAE6B3-D452-4DD4-A4FD-CCDEC2CD8BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="practice" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>practiceWord</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>logrando</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>correctAns</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -138,83 +147,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="8"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="8"/>
-      </top>
-      <bottom style="thin">
-        <color theme="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,125 +522,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD810C5-1B2D-4EE4-939A-901E632B94E3}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.5546875" style="6"/>
-    <col min="8" max="8" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.5546875" style="8"/>
+    <col min="8" max="8" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="12"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="13"/>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
